--- a/pred_ohlcv/54_21/2019-10-27 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 PAY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-261288.5281</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-261870.5281</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-262161.5281</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-262452.5281</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-260886.5281</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-258522.5281</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-258522.5281</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-247563.3287</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-251800.3287</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-251047.1762</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-251047.1762</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-251022.1762</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-252718.1242</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-252707.1242</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-252756.9992</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-220823.9992</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-432052.2895884822</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-428949.1571884822</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-431531.1571884822</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-416286.2770884822</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-414216.2770884822</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-414016.2770884822</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-422471.5175884822</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-434888.6955884823</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-434877.6955884823</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-444498.6183884823</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-471484.1529884823</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-827334.1662884823</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-842530.1598884823</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-841305.1598884823</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-856123.6731884823</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-855787.6731884823</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-824654.6773884824</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-827104.5601884825</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-836475.3865884825</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-834748.9129884825</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-841878.4478884825</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-838133.1354884824</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-839054.1354884824</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-841406.3011884824</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-841406.3011884824</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-841396.3011884824</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-844701.0674884825</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-842073.5333884824</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-842040.4009884824</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-842209.1640884824</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-845909.0672810751</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-845235.378981075</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-846035.378981075</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-862443.481781075</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-859154.481781075</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 PAY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-261288.5281</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-261870.5281</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-262161.5281</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-262452.5281</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-251800.3287</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-251047.1762</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-251047.1762</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-251022.1762</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-252718.1242</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-252707.1242</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-252756.9992</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-220823.9992</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-221522.9992</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-432052.2895884822</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-428972.2895884822</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-428949.1571884822</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-431531.1571884822</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-416286.2770884822</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-414216.2770884822</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-414016.2770884822</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-422471.5175884822</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-434888.6955884823</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-434877.6955884823</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-444498.6183884823</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-471484.1529884823</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-827334.1662884823</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-842102.1598884823</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-842530.1598884823</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-842105.1598884823</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-841305.1598884823</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-855324.7031884823</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-856123.6731884823</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-823593.0789884824</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-823715.1370884824</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-825715.1370884824</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-824666.0038884823</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-824654.6773884824</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-824669.6773884824</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-824684.6773884824</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-832875.3865884824</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-828692.4023884825</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-823504.5601884825</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-826304.5601884825</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-827104.5601884825</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-836475.3865884825</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-834748.9129884825</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-841878.4478884825</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-841798.4478884825</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-838158.4478884825</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-838133.1354884824</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-839054.1354884824</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-841406.3011884824</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-841406.3011884824</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-841396.3011884824</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-844701.0674884825</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-842073.5333884824</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-842040.4009884824</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-842209.1640884824</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-862323.1413884824</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-843432.0992810751</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-845909.0672810751</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-845384.0672810751</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-845235.378981075</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-846035.378981075</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-862443.481781075</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-859154.481781075</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
